--- a/会员电商开业包 GM Hotel Opening Pack_Digital channel.xlsx
+++ b/会员电商开业包 GM Hotel Opening Pack_Digital channel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hotels and Brand\开业包总集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hotels and Brand\ffopening_sync\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Item
 项目</t>
@@ -48,9 +48,6 @@
   <si>
     <t>GM申请EID</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总部帮新酒店提交第一份EID申请，并需要有property level approver的权限，以便GM可以进行其他万豪系统相关的工作</t>
   </si>
   <si>
     <t xml:space="preserve">最新表格下载在 HDX+的FORM#5
@@ -480,6 +477,14 @@
       <t>EID
 GM与酒店各部门需参加相应的培训</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新酒店GM的EID申请SOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部HR为新酒店GM提交第一份EID申请，并赋予其System Administrator / approver的权限，以便GM可以使用franchise tools为酒店其他员工开通EID和各种万豪的系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -608,6 +613,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,7 +634,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,44 +650,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -954,24 +976,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="2.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -996,189 +1018,199 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="99" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="99" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="会员电商\marsha"/>
-    <hyperlink ref="D5" r:id="rId2" display="会员电商\marsha"/>
-    <hyperlink ref="D6" r:id="rId3" display="会员电商\system"/>
-    <hyperlink ref="D7" r:id="rId4" display="会员电商\opening"/>
-    <hyperlink ref="D8" r:id="rId5" display="会员电商\opening"/>
-    <hyperlink ref="D9" r:id="rId6" display="会员电商\system"/>
-    <hyperlink ref="D10" r:id="rId7" display="会员电商\ota"/>
-    <hyperlink ref="D11" r:id="rId8" display="会员电商\training"/>
+    <hyperlink ref="D5" r:id="rId1" display="会员电商\files\marsha"/>
+    <hyperlink ref="D6" r:id="rId2" display="会员电商\marsha"/>
+    <hyperlink ref="D7" r:id="rId3" display="会员电商\system"/>
+    <hyperlink ref="D8" r:id="rId4" display="会员电商\opening"/>
+    <hyperlink ref="D9" r:id="rId5" display="会员电商\opening"/>
+    <hyperlink ref="D10" r:id="rId6" display="会员电商\system"/>
+    <hyperlink ref="D11" r:id="rId7" display="会员电商\ota"/>
+    <hyperlink ref="D12" r:id="rId8" display="会员电商\training"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
